--- a/Analisi_vendite/Test vari/DID_files/Dati_destagionalizzati_DID.xlsx
+++ b/Analisi_vendite/Test vari/DID_files/Dati_destagionalizzati_DID.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_vendite\Test vari\DID_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Analisi_vendite/Test vari/DID_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6BE0B-D69E-4311-835B-A62123F64F60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F871E26-BE74-3249-9493-75A4BF3BB569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{47DF581E-DE23-43B3-BC9A-AC2D7BDCE23F}"/>
+    <workbookView xWindow="-640" yWindow="2180" windowWidth="28800" windowHeight="15600" activeTab="6" xr2:uid="{47DF581E-DE23-43B3-BC9A-AC2D7BDCE23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Abbigliamento" sheetId="1" r:id="rId1"/>
     <sheet name="Calzature" sheetId="2" r:id="rId2"/>
     <sheet name="Elettrodomestici" sheetId="3" r:id="rId3"/>
     <sheet name="Fotoottica" sheetId="4" r:id="rId4"/>
+    <sheet name="Casalinghi" sheetId="5" r:id="rId5"/>
+    <sheet name="Utilenseria" sheetId="6" r:id="rId6"/>
+    <sheet name="Giocattoli" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>T1</t>
   </si>
@@ -541,13 +544,13 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -585,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-19</v>
       </c>
@@ -623,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-18</v>
       </c>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-17</v>
       </c>
@@ -699,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-16</v>
       </c>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-15</v>
       </c>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-14</v>
       </c>
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-13</v>
       </c>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-12</v>
       </c>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-11</v>
       </c>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-9</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-7</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-5</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-4</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-3</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-19</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-18</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-17</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-16</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-15</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-14</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-13</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-12</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-11</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-9</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-7</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-6</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-5</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-4</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-3</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-2</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2424,12 +2427,12 @@
       <selection activeCell="C1" sqref="C1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-19</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-18</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-17</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-16</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-15</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-14</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-13</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-12</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-11</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-9</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-7</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-5</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-4</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-3</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-19</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-18</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-17</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-16</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-15</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-14</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-13</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-12</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-11</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-9</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-7</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-6</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-5</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-4</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-3</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-2</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4304,12 +4307,12 @@
       <selection activeCell="C1" sqref="C1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-19</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-18</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-17</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-16</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-15</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-14</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-13</v>
       </c>
@@ -4613,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-12</v>
       </c>
@@ -4651,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-11</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-9</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-7</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-5</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-4</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-3</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-19</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-18</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-17</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-16</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-15</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-14</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-13</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-12</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-11</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-9</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-7</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-6</v>
       </c>
@@ -5791,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-5</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-4</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-3</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-2</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -6180,16 +6183,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24EFDBF-2592-4AA1-B9B8-6033DA6DB77E}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-19</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-18</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-17</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-16</v>
       </c>
@@ -6379,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-15</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-14</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-13</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-12</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-11</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-9</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-7</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-5</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-4</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-3</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-19</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-18</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-17</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-16</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-15</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-14</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-13</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-12</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-11</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-9</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -7595,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-7</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-6</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-5</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-4</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-3</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-2</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7899,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -7937,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -8013,12 +8016,5643 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" s="1">
         <v>89.021296296296285</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA6B2C5-7CBC-5744-91BA-142B87FEA7B7}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>101.61018518518519</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>102.35601851851852</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102.75046296296297</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100.92407407407407</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103.59212962962962</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.44212962962962</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>102.48796296296295</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>103.42962962962962</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102.6601851851852</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>103.05740740740741</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>103.31157407407406</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>103.17824074074073</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-7</v>
+      </c>
+      <c r="B14">
+        <v>103.7101851851852</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-6</v>
+      </c>
+      <c r="B15">
+        <v>102.15601851851852</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-5</v>
+      </c>
+      <c r="B16">
+        <v>101.05046296296297</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-4</v>
+      </c>
+      <c r="B17">
+        <v>103.22407407407408</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-3</v>
+      </c>
+      <c r="B18">
+        <v>102.49212962962963</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-2</v>
+      </c>
+      <c r="B19">
+        <v>104.74212962962962</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>104.88796296296296</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>103.62962962962962</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>104.1601851851852</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>104.35740740740741</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>104.01157407407406</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>104.57824074074074</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>97.995833333333337</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>98.05416666666666</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>97.995833333333309</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>97.987500000000011</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-15</v>
+      </c>
+      <c r="B30" s="1">
+        <v>97.96250000000002</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>97.837500000000006</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>97.829166666666652</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>97.86666666666666</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>97.86666666666666</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>97.895833333333314</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>97.941666666666663</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>96.118055555555557</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>97.631944444444443</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>98.770833333333343</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>-5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>96.544444444444451</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>97.958333333333343</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>96.75</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>-2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>95.93194444444444</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>97.055555555555543</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>100.86944444444444</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>83.837500000000006</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>80.219444444444449</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>93.012500000000003</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>95.818055555555546</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5AEB04-C500-424A-93A5-6C7786E957F2}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L49" sqref="A1:L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>101.61018518518519</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>102.35601851851852</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102.75046296296297</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100.92407407407407</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103.59212962962962</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.44212962962962</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>102.48796296296295</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>103.42962962962962</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102.6601851851852</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>103.05740740740741</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>103.31157407407406</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>103.17824074074073</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-7</v>
+      </c>
+      <c r="B14">
+        <v>103.7101851851852</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-6</v>
+      </c>
+      <c r="B15">
+        <v>102.15601851851852</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-5</v>
+      </c>
+      <c r="B16">
+        <v>101.05046296296297</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-4</v>
+      </c>
+      <c r="B17">
+        <v>103.22407407407408</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-3</v>
+      </c>
+      <c r="B18">
+        <v>102.49212962962963</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-2</v>
+      </c>
+      <c r="B19">
+        <v>104.74212962962962</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>104.88796296296296</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>103.62962962962962</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>104.1601851851852</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>104.35740740740741</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>104.01157407407406</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>104.57824074074074</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>101.04583333333332</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>101.17083333333332</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>101.28749999999997</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>101.31666666666665</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-15</v>
+      </c>
+      <c r="B30" s="1">
+        <v>101.14166666666665</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>101.07499999999999</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>101.24583333333331</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>101.28749999999998</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>101.25</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>101.27916666666667</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>101.26249999999999</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>98.108449074074073</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>102.15150462962963</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>100.0028935185185</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>-5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>99.384837962962962</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>99.970949074074085</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>98.300115740740736</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>-2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>98.662615740740733</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100.57372685185186</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>103.02928240740739</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>74.716782407407408</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>71.91678240740741</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>102.98206018518519</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>104.70844907407408</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10C6B54-19D8-5148-A186-26022B6B3986}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>101.61018518518519</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>102.35601851851852</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102.75046296296297</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100.92407407407407</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103.59212962962962</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.44212962962962</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>102.48796296296295</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>103.42962962962962</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102.6601851851852</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>103.05740740740741</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>103.31157407407406</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>103.17824074074073</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-7</v>
+      </c>
+      <c r="B14">
+        <v>103.7101851851852</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-6</v>
+      </c>
+      <c r="B15">
+        <v>102.15601851851852</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-5</v>
+      </c>
+      <c r="B16">
+        <v>101.05046296296297</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-4</v>
+      </c>
+      <c r="B17">
+        <v>103.22407407407408</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-3</v>
+      </c>
+      <c r="B18">
+        <v>102.49212962962963</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-2</v>
+      </c>
+      <c r="B19">
+        <v>104.74212962962962</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>104.88796296296296</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>103.62962962962962</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>104.1601851851852</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>104.35740740740741</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>104.01157407407406</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>104.57824074074074</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-19</v>
+      </c>
+      <c r="B26">
+        <v>105.51666666666665</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-18</v>
+      </c>
+      <c r="B27">
+        <v>105.56666666666668</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-17</v>
+      </c>
+      <c r="B28">
+        <v>105.6</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-16</v>
+      </c>
+      <c r="B29">
+        <v>105.67916666666666</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-15</v>
+      </c>
+      <c r="B30">
+        <v>105.60416666666666</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-14</v>
+      </c>
+      <c r="B31">
+        <v>105.5625</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-13</v>
+      </c>
+      <c r="B32">
+        <v>105.71250000000001</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-12</v>
+      </c>
+      <c r="B33">
+        <v>105.76249999999999</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-11</v>
+      </c>
+      <c r="B34">
+        <v>105.71250000000001</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-10</v>
+      </c>
+      <c r="B35">
+        <v>105.77083333333334</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-9</v>
+      </c>
+      <c r="B36">
+        <v>105.93333333333332</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-8</v>
+      </c>
+      <c r="B37">
+        <v>97.64560185185185</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-7</v>
+      </c>
+      <c r="B38">
+        <v>105.63032407407407</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-6</v>
+      </c>
+      <c r="B39">
+        <v>106.01226851851852</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>-5</v>
+      </c>
+      <c r="B40">
+        <v>102.1275462962963</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-4</v>
+      </c>
+      <c r="B41">
+        <v>103.91921296296296</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-3</v>
+      </c>
+      <c r="B42">
+        <v>101.70393518518519</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>-2</v>
+      </c>
+      <c r="B43">
+        <v>98.196990740740745</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44">
+        <v>102.20949074074075</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>101.85254629629628</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>65.678935185185196</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>41.245601851851852</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>89.777546296296308</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>106.04560185185184</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
